--- a/模组列表.xlsx
+++ b/模组列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4467A205-C59D-474F-8EE0-FDF86551895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5B572-8649-4B80-A155-AF0652C0AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="31234" windowHeight="16937" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3831" yWindow="2649" windowWidth="23272" windowHeight="12257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="395">
   <si>
     <t>原版名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>中文名</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>AetherAspects</t>
@@ -95,1269 +95,1261 @@
   </si>
   <si>
     <t>扩展/优化</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>其他模组</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Achgrate</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>bugtorch</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>notenoughIDs-GTNH</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ID拓展GTNH版本</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>修复模组联动的一些BUG</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>GTNH维护的模组的Lib库</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1.7.10版本的Mixin总和</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZZZ_LOTweakR</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>破坏性修复龙API和魔戒的冲突</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>EntityCulling-Unofficial</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>实体渲染机制优化</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>关系</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>unimixins-all</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>gtnhlib</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是gtnhlib</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：传承</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>LOTRMod</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ChromatiCraft </t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Thaumcraft拓展 前置是DragonAPI </t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Middleearththaumaturgy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>中土神秘学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是LOTRMod</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>neiRecipeHandlers</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>neiLotr</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔戒nei附属</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔戒合成</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家, NEI Recipe Handlers</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>SmoothFont</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>平滑字体</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Aether</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Aether</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Gilded-games-util</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Gilded-games-util</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘生物要素扫描</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>TwilightForest</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>AOBD</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>应用能源2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>天境2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>天境要素扫描</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>以太前置库</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>黑暗神秘学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>暮色森林</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>旅者之器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘基础学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>SpecialMobs</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>特殊怪物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>LycanitesMobsComplete</t>
   </si>
   <si>
     <t>恐怖生物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MoCreatures-Legacy-Final</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>更多生物分支版本</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>WitchingGadgets</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>巫师宝具</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumaturgical Knowledge</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>TravellersGear</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>WarpTheory</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘扭曲学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcarpentry</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘木匠</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘奥义</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThermalFoundation</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>热力基本</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThermalDynamics</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>热动力学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工艺</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>TofuFactoryR</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工厂重制版</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>林业</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>光明之弓</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔法蜜蜂</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Forestry</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是Forestry</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔法曲奇</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>混合魔法</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MagicalDecorations</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘装饰</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>自然魔法</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>AdvancedThaumaturgy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>炼金炉篦</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>高等神秘学2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代nei附属</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftGates</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>奥法管道</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BC</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftJarChecker</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>源质罐子统计</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Polybius</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>更多要素</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>TCBotaniaExoflame</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Talismans2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>护身符2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Machina</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘工匠</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicUtilities</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘实用工具</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic_Upholstery</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumores</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>奥能矿物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicSanity</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>扭曲修正</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicPipes</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘管道</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，MJUtils</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，nei全家</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Additions</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘领域</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ParticleLib</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Dyes</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘染料</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘力学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Nexus</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicenergistics</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘能源</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Applied Energistics 2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicalchemy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘炼金学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicEquivalence</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>奥法置换</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumichorizons</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘视界</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicInfusion</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘注魔</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExpansion</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘膨胀</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExploration</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘探险</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘守望者</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘启示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔法金属</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>量子魔法</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>统一矿物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>奥法工程学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ImmersiveEngineering</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneArteries</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>奥法献祭学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Automagy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>自动化魔法</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Cyclops Core</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Carpenter's Blocks</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Avaritia</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>无尽贪婪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是CodeChicken Lib</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>血魔法</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>热力核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CodeChickenCore</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>鸡块核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>木匠方块</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Carpenter's+Blocks</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>建筑核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>buildcraft-compat</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是buildcraft-compat</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>植物魔法</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Chunk+Pregenerator</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>CraftArcanum</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔改</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ElectricThaum</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>电力魔法工具</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BloodMagic，EvilCraft，Botania</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ImmersiveEngineering</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ElecCore</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2，ElecCore</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>EssentialThaumaturgy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>EssentialCraft3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>源质神秘学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，EssentialCraft3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是DummyCore</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>邪恶工艺</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Nihilo</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>无中生有</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Forbidden</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>禁忌魔法</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ForgeMultipart</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Gadomancy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔像秘经</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Hammerz</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>HeartWork</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>心血结晶</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>InfusionBrewing</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>注魔酿造</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>源质魔法3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>沉浸工程</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>工业时代2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>IndustrialUpgrade</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>工业升级</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Industrialcraft</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Industrialcraft</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>InventoryTweaks</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>R键整理</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑艺术之刃</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade-SlashArts</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>拔刀剑风雷剑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Symcalc</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>对称度运算仪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>奥数投射</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>等价交换</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Railcraft</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>NodalMechanics</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>节点力学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Technomancy</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Tchelper</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘研究帮助</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Tcinventoryscan</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代物品栏扫描</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Tcnodetracker</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘节点追踪</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Tainted-Magic</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>污秽魔法</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>姆亚核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Shamanry</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>巫媒</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Origin</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ParticleLib</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>粒子库</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>铁路</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DummyCore</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>齿轮核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，DummyCore</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>锤子</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>OmnisCore</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是nei全家</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>橘子核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Mjutils</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，PrjectE</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Cyclops Core</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ExtraScepterStaff</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>独角兽权杖</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Boots</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘靴子</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Muya</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Ex-Nihilo</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>独眼核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Localization Optimizer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代本地化优化</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Not Enough Thaumcraft Tabs</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>无限神秘标签页</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 Tweaks</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>失落遗物学</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Forgotten Relics</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Transmute Liquids</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘标签页</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>液体嬗变</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>星辉生万物重制版</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Astris-Rebirth</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Garden of Glass</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>水晶花园</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置Botania</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>FpsReducer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Fps减速器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Thermal热力全家，Origin</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>tcneiadditions</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>nei添加更多神秘合成类型显示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘纠缠</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicBases</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicRevelations</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>AWWayofTime</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>magicalcrops</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔法作物</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>区块预生成器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Warden</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicTinkerer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>IlluminatedBows</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MagiaNaturalis</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MagicCookies</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MixedMagic</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>支持拼音搜索与 JEI 风格的关键字匹配</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneEngineering</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ElectroMagicTools</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>witchery</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>巫术</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Omnis Core，Multipart，CodeChicken Lib</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，CodeChicken Lib</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>格雷科技6</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>工艺奥秘,电力神秘</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>库</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft联动是TwilightForest,LycanitesMobsComplete,MoCreatures,SpecialMobs</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>magicbees</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，SlashBlade</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是waila-GTNH</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  模组重置了NEI的注册系统会在根目录下写入缓存，模组变动一次就会重写一次。会导致加载时间变长很多。放在了可以替换模组的文件夹下。需要使用可以加载。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>要点</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Aroma1997Core</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>AromaBackup</t>
   </si>
   <si>
     <t>Aroma系列模组核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>备份模组</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Aroma1997Core</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>EnderIO</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>modernsplash</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>高版本加载界面</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>shadersfixer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>光影修复</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>EnderCore</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>末影核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>末影接口</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Angelica</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>替代optfine</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>NEI包括附属</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>nechar-GTNH（NotEnoughCharacters）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>neiaddons</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Nei合成显示扩展</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>NEI-Integration</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>原版名称</t>
@@ -1373,199 +1365,255 @@
   </si>
   <si>
     <t>前置是Thaumcraft，旧版本译名神秘守望者，还有更古早的叫Thaumic Warden都是这个模组。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>GregTech 6</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft   Thaumcraft 4 Tweaks类似功能</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>会统一矿物辞典所以会在加载时卡住</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Xaeros_Minimap</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Xaero的小地图</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Omnis核心</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘混成</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicHybrid</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>thaumicmixins</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘糅合</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，通过Mixin注入的方式修复了联动和神秘4本身的一些问题</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Integration</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘集合</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftAltarCull</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘祭坛稳定器渲染剔除</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，当玩家远离祭坛时，自动“剔除”稳定器方块 的渲染</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，将Thaumcraft模组的机制和要素整合进其他不原生支持 Thaumcraft 的模组里</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 : Patched</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4：修补</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，NemexLib</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>NemexLib</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Nemex库</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>thaumicthermae</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘温泉</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Renaissance</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>神秘复兴</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是unimixins-all，DragonAPI ，LOTRMod，所有的材质都未实装</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Deathly Hallows</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>死亡圣器</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania，Witchery</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Essentia Pipes</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>管道简化</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Salis Arcana</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>奥秘之盐</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Cybersus</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔能义体</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ItemBlackListFIXED</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>物品黑名单修复版</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>合成冲突消除：修复版</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>RecipeConflict Fixer</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Chromaticraft-AIFixes</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>ChromatiFixes</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>lotrcrashfix</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：溢出修复</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，修复和其他模组可能导致的工具类数组溢出</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之研究</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之研究前置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrandonsCore</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draconic-Evolution</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hell Integrations</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘众戒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是Thaumcraft，Baubles Expanded和Baubles任选其一</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是Thaumcraft，Avaritia，Botania，Applied Energistics 2，Draconic Evolution，Advanced Solar Panels</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置BrandonsCore</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔刀剑西风之刃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOTweakR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1781,168 +1829,174 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2230,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I11" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.92578125" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2261,34 +2315,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="25" t="s">
         <v>336</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>338</v>
       </c>
       <c r="M1" s="5"/>
     </row>
@@ -2317,44 +2371,44 @@
         <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H3" s="5"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="K4" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="M4" s="5"/>
     </row>
@@ -2366,377 +2420,377 @@
         <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="G5" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>109</v>
-      </c>
       <c r="G6" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>205</v>
-      </c>
       <c r="K9" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="I10" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>317</v>
-      </c>
       <c r="C11" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>318</v>
-      </c>
       <c r="C12" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="J12" s="28" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="G14" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="18"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E15" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -2749,64 +2803,64 @@
         <v>16</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="G17" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="I17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="30" t="s">
-        <v>49</v>
-      </c>
       <c r="K17" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" s="5"/>
     </row>
@@ -2815,91 +2869,91 @@
         <v>3</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>141</v>
-      </c>
       <c r="G18" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
+        <v>252</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="C19" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="E19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>147</v>
-      </c>
       <c r="G19" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
+        <v>278</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>149</v>
-      </c>
       <c r="G20" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -2907,27 +2961,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>143</v>
-      </c>
       <c r="G21" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2935,159 +2989,159 @@
         <v>5</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>145</v>
-      </c>
       <c r="G22" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>125</v>
-      </c>
       <c r="G23" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>152</v>
+        <v>283</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>151</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>123</v>
-      </c>
       <c r="G25" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>170</v>
-      </c>
       <c r="C26" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M26" s="5"/>
     </row>
@@ -3096,34 +3150,34 @@
         <v>6</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>118</v>
-      </c>
       <c r="G27" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="5"/>
     </row>
@@ -3132,161 +3186,161 @@
         <v>7</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="30" t="s">
-        <v>121</v>
-      </c>
       <c r="G29" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="30" t="s">
-        <v>82</v>
-      </c>
       <c r="G32" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M32" s="5"/>
     </row>
@@ -3295,274 +3349,274 @@
         <v>8</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="30" t="s">
-        <v>80</v>
-      </c>
       <c r="G33" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>197</v>
-      </c>
       <c r="C34" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="30" t="s">
-        <v>99</v>
-      </c>
       <c r="G35" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="K35" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="L35" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>212</v>
-      </c>
       <c r="C39" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>216</v>
-      </c>
       <c r="C40" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="30" t="s">
-        <v>111</v>
-      </c>
       <c r="G40" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="30" t="s">
-        <v>114</v>
-      </c>
       <c r="G41" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M42" s="5"/>
     </row>
@@ -3571,22 +3625,22 @@
         <v>10</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M43" s="5"/>
     </row>
@@ -3595,100 +3649,100 @@
         <v>11</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F44" s="40" t="s">
-        <v>159</v>
-      </c>
       <c r="G44" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F45" s="30" t="s">
-        <v>161</v>
-      </c>
       <c r="G45" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M47" s="5"/>
     </row>
@@ -3697,459 +3751,484 @@
         <v>12</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F49" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F50" s="30" t="s">
-        <v>199</v>
-      </c>
       <c r="G50" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="F51" s="30" t="s">
-        <v>202</v>
-      </c>
       <c r="G51" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>85</v>
-      </c>
       <c r="C52" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="F52" s="30" t="s">
-        <v>207</v>
-      </c>
       <c r="G52" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>87</v>
-      </c>
       <c r="C53" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>76</v>
-      </c>
       <c r="C54" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>53</v>
-      </c>
       <c r="C55" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>70</v>
-      </c>
       <c r="C56" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>72</v>
-      </c>
       <c r="C57" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="31" t="s">
-        <v>74</v>
-      </c>
       <c r="C58" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>90</v>
-      </c>
       <c r="C59" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B60" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="E60" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="C64" s="38"/>
+        <v>375</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>284</v>
+      </c>
       <c r="E64" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="C65" s="38"/>
+        <v>376</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>284</v>
+      </c>
       <c r="E65" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>392</v>
+      </c>
       <c r="E66" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>284</v>
+      </c>
       <c r="E67" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M67" s="5"/>
     </row>
@@ -4157,44 +4236,44 @@
       <c r="E68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="29" t="s">
-        <v>220</v>
+      <c r="F68" s="49" t="s">
+        <v>393</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E69" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F69" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="F69" s="30" t="s">
-        <v>272</v>
-      </c>
       <c r="G69" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E70" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M70" s="5"/>
     </row>
@@ -4202,163 +4281,189 @@
       <c r="A71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E72" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="G72" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="H72" s="25" t="s">
         <v>348</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="G72" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E73" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G73" s="43" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E74" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F74" s="42" t="s">
+        <v>352</v>
+      </c>
+      <c r="G74" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="F74" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="G74" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E75" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F75" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G75" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="F75" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="G75" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E76" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F76" s="42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G76" s="43" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E77" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F77" s="48" t="s">
-        <v>365</v>
+        <v>362</v>
+      </c>
+      <c r="F77" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="G77" s="43" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E78" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F78" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="G78" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="F78" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="G78" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E79" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F79" s="42" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G79" s="45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E80" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G80" s="45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E81" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F81" s="46" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E82" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F82" s="46"/>
+      <c r="G82" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E83" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F83" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G83" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I18:L22"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/模组列表.xlsx
+++ b/模组列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5B572-8649-4B80-A155-AF0652C0AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAE186E-6499-4C2B-B0CE-F4B9D447DA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3831" yWindow="2649" windowWidth="23272" windowHeight="12257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="31234" windowHeight="16937" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="398">
   <si>
     <t>原版名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>中文名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AetherAspects</t>
@@ -95,1261 +95,1261 @@
   </si>
   <si>
     <t>扩展/优化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>其他模组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Achgrate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>bugtorch</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>notenoughIDs-GTNH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ID拓展GTNH版本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>修复模组联动的一些BUG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>GTNH维护的模组的Lib库</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>1.7.10版本的Mixin总和</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>破坏性修复龙API和魔戒的冲突</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>EntityCulling-Unofficial</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>实体渲染机制优化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>关系</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>unimixins-all</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>gtnhlib</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是gtnhlib</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：传承</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>LOTRMod</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ChromatiCraft </t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Thaumcraft拓展 前置是DragonAPI </t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Middleearththaumaturgy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>中土神秘学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是LOTRMod</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>neiRecipeHandlers</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>neiLotr</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔戒nei附属</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔戒合成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家, NEI Recipe Handlers</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SmoothFont</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>平滑字体</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Aether</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Aether</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Gilded-games-util</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Gilded-games-util</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘生物要素扫描</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>TwilightForest</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AOBD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>应用能源2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>天境2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>天境要素扫描</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>以太前置库</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>黑暗神秘学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>暮色森林</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>旅者之器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘基础学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SpecialMobs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>特殊怪物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>LycanitesMobsComplete</t>
   </si>
   <si>
     <t>恐怖生物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MoCreatures-Legacy-Final</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>更多生物分支版本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>WitchingGadgets</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>巫师宝具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumaturgical Knowledge</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>TravellersGear</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>WarpTheory</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘扭曲学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcarpentry</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘木匠</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘奥义</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThermalFoundation</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>热力基本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThermalDynamics</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>热动力学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工艺</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>TofuFactoryR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工厂重制版</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>林业</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>光明之弓</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔法蜜蜂</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Forestry</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是Forestry</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔法曲奇</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>混合魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MagicalDecorations</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘装饰</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>自然魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AdvancedThaumaturgy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>炼金炉篦</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>高等神秘学2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代nei附属</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftGates</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奥法管道</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftJarChecker</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>源质罐子统计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Polybius</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>更多要素</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>TCBotaniaExoflame</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Talismans2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>护身符2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Machina</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘工匠</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicUtilities</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘实用工具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic_Upholstery</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumores</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奥能矿物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicSanity</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>扭曲修正</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicPipes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘管道</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，MJUtils</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，nei全家</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Additions</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘领域</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ParticleLib</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Dyes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘染料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘力学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Nexus</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicenergistics</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘能源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Applied Energistics 2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicalchemy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘炼金学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicEquivalence</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奥法置换</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumichorizons</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘视界</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicInfusion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘注魔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExpansion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘膨胀</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExploration</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘探险</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘守望者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘启示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔法金属</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>量子魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>统一矿物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奥法工程学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ImmersiveEngineering</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneArteries</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奥法献祭学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Automagy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>自动化魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Cyclops Core</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Carpenter's Blocks</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Avaritia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无尽贪婪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是CodeChicken Lib</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>血魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>热力核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CodeChickenCore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>鸡块核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>木匠方块</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Carpenter's+Blocks</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>建筑核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>buildcraft-compat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是buildcraft-compat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>植物魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Chunk+Pregenerator</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CraftArcanum</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔改</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ElectricThaum</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电力魔法工具</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BloodMagic，EvilCraft，Botania</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ImmersiveEngineering</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ElecCore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2，ElecCore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>EssentialThaumaturgy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>EssentialCraft3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>源质神秘学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，EssentialCraft3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是DummyCore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>邪恶工艺</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Nihilo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无中生有</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Forbidden</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>禁忌魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ForgeMultipart</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Gadomancy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔像秘经</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Hammerz</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>HeartWork</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>心血结晶</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>InfusionBrewing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>注魔酿造</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>源质魔法3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>沉浸工程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>工业时代2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>IndustrialUpgrade</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>工业升级</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Industrialcraft</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Industrialcraft</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>InventoryTweaks</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>R键整理</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑艺术之刃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade-SlashArts</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Symcalc</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>对称度运算仪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奥数投射</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>等价交换</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Railcraft</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>NodalMechanics</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>节点力学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Technomancy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Tchelper</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘研究帮助</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Tcinventoryscan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代物品栏扫描</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Tcnodetracker</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘节点追踪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Tainted-Magic</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>污秽魔法</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>姆亚核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Shamanry</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>巫媒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Origin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ParticleLib</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>粒子库</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>铁路</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DummyCore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>齿轮核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，DummyCore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>锤子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>OmnisCore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是nei全家</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>橘子核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mjutils</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，PrjectE</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Cyclops Core</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ExtraScepterStaff</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>独角兽权杖</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Boots</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘靴子</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Muya</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Ex-Nihilo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>独眼核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Localization Optimizer</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代本地化优化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Not Enough Thaumcraft Tabs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无限神秘标签页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 Tweaks</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>失落遗物学</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Forgotten Relics</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Transmute Liquids</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘标签页</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>液体嬗变</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>星辉生万物重制版</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Astris-Rebirth</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Garden of Glass</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>水晶花园</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置Botania</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>FpsReducer</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Fps减速器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Thermal热力全家，Origin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>tcneiadditions</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>nei添加更多神秘合成类型显示</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘纠缠</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicBases</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicRevelations</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AWWayofTime</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>magicalcrops</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔法作物</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>区块预生成器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Warden</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicTinkerer</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>IlluminatedBows</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MagiaNaturalis</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MagicCookies</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>MixedMagic</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>支持拼音搜索与 JEI 风格的关键字匹配</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneEngineering</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ElectroMagicTools</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>witchery</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>巫术</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Omnis Core，Multipart，CodeChicken Lib</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，CodeChicken Lib</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>格雷科技6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>工艺奥秘,电力神秘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>库</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft联动是TwilightForest,LycanitesMobsComplete,MoCreatures,SpecialMobs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>magicbees</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，SlashBlade</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是waila-GTNH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  模组重置了NEI的注册系统会在根目录下写入缓存，模组变动一次就会重写一次。会导致加载时间变长很多。放在了可以替换模组的文件夹下。需要使用可以加载。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>要点</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Aroma1997Core</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>AromaBackup</t>
   </si>
   <si>
     <t>Aroma系列模组核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>备份模组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Aroma1997Core</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>EnderIO</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>modernsplash</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>高版本加载界面</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>shadersfixer</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>光影修复</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>EnderCore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>末影核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>末影接口</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Angelica</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>替代optfine</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>NEI包括附属</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>nechar-GTNH（NotEnoughCharacters）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>neiaddons</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Nei合成显示扩展</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>NEI-Integration</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>原版名称</t>
@@ -1365,247 +1365,267 @@
   </si>
   <si>
     <t>前置是Thaumcraft，旧版本译名神秘守望者，还有更古早的叫Thaumic Warden都是这个模组。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>GregTech 6</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft   Thaumcraft 4 Tweaks类似功能</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>会统一矿物辞典所以会在加载时卡住</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Xaeros_Minimap</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Xaero的小地图</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Omnis核心</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘混成</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicHybrid</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>thaumicmixins</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘糅合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，通过Mixin注入的方式修复了联动和神秘4本身的一些问题</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Integration</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘集合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftAltarCull</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘祭坛稳定器渲染剔除</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，当玩家远离祭坛时，自动“剔除”稳定器方块 的渲染</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，将Thaumcraft模组的机制和要素整合进其他不原生支持 Thaumcraft 的模组里</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 : Patched</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4：修补</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，NemexLib</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>NemexLib</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Nemex库</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>thaumicthermae</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘温泉</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Renaissance</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘复兴</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是unimixins-all，DragonAPI ，LOTRMod，所有的材质都未实装</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Deathly Hallows</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>死亡圣器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania，Witchery</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Essentia Pipes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>管道简化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Salis Arcana</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>奥秘之盐</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Cybersus</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔能义体</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ItemBlackListFIXED</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>物品黑名单修复版</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>合成冲突消除：修复版</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>RecipeConflict Fixer</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Chromaticraft-AIFixes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>ChromatiFixes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>lotrcrashfix</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：溢出修复</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，修复和其他模组可能导致的工具类数组溢出</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>龙之研究</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>龙之研究前置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>BrandonsCore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Draconic-Evolution</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Hell Integrations</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>trop</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>神秘众戒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Baubles Expanded和Baubles任选其一</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Avaritia，Botania，Applied Energistics 2，Draconic Evolution，Advanced Solar Panels</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>前置BrandonsCore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑西风之刃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>LOTweakR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>缤纷纪元修复</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>缤纷纪元另一个修复</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">前置是ChromatiCraft </t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1829,174 +1849,180 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2286,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="H20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.92578125" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3432,7 +3458,7 @@
       <c r="I35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="51" t="s">
         <v>40</v>
       </c>
       <c r="K35" s="16" t="s">
@@ -3468,6 +3494,15 @@
       <c r="I36" s="3" t="s">
         <v>379</v>
       </c>
+      <c r="J36" s="51" t="s">
+        <v>395</v>
+      </c>
+      <c r="K36" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>397</v>
+      </c>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -3494,6 +3529,15 @@
       </c>
       <c r="I37" s="3" t="s">
         <v>378</v>
+      </c>
+      <c r="J37" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="K37" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>397</v>
       </c>
       <c r="M37" s="5"/>
     </row>
@@ -4463,7 +4507,7 @@
   <mergeCells count="1">
     <mergeCell ref="I18:L22"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/模组列表.xlsx
+++ b/模组列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F6BA7-B8DB-4B47-A8F8-EF32B064C3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B967AD4-6BA0-4202-8EEC-0A28782D070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="31234" windowHeight="16937" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2390" yWindow="20" windowWidth="19170" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,18 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="416">
   <si>
     <t>原版名称</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>AetherAspects</t>
@@ -85,1193 +88,1193 @@
   </si>
   <si>
     <t>扩展/优化</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>其他模组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Achgrate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ID拓展GTNH版本</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>修复模组联动的一些BUG</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>GTNH维护的模组的Lib库</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>1.7.10版本的Mixin总和</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>破坏性修复龙API和魔戒的冲突</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>EntityCulling-Unofficial</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>实体渲染机制优化</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是gtnhlib</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：传承</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>LOTRMod</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ChromatiCraft </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Thaumcraft拓展 前置是DragonAPI </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Middleearththaumaturgy</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>中土神秘学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是LOTRMod</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔戒nei附属</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔戒合成</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家, NEI Recipe Handlers</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>SmoothFont</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>平滑字体</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Aether</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Aether</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Gilded-games-util</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Gilded-games-util</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘生物要素扫描</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>TwilightForest</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>AOBD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>应用能源2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>天境2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>天境要素扫描</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>以太前置库</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>黑暗神秘学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>暮色森林</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>旅者之器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘基础学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>SpecialMobs</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>特殊怪物</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>LycanitesMobsComplete</t>
   </si>
   <si>
     <t>恐怖生物</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>MoCreatures-Legacy-Final</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>更多生物分支版本</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>WitchingGadgets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>巫师宝具</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumaturgical Knowledge</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>TravellersGear</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>WarpTheory</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘扭曲学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcarpentry</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘木匠</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘奥义</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThermalFoundation</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>热力基本</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThermalDynamics</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>热动力学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工艺</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>TofuFactoryR</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工厂重制版</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>林业</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>光明之弓</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔法蜜蜂</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Forestry</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是Forestry</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔法曲奇</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>混合魔法</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>MagicalDecorations</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘装饰</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>自然魔法</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>AdvancedThaumaturgy</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>炼金炉篦</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>高等神秘学2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代nei附属</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftGates</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>奥法管道</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>源质罐子统计</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Polybius</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>更多要素</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>TCBotaniaExoflame</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Talismans2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>护身符2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Machina</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘工匠</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicUtilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘实用工具</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic_Upholstery</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumores</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>奥能矿物</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicSanity</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>扭曲修正</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicPipes</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘管道</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，MJUtils</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，nei全家</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Additions</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘领域</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ParticleLib</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Dyes</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘染料</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘力学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Nexus</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicenergistics</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘能源</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Applied Energistics 2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicalchemy</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘炼金学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicEquivalence</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>奥法置换</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumichorizons</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘视界</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicInfusion</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘注魔</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExpansion</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘膨胀</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExploration</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘探险</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘守望者</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘启示</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔法金属</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>量子魔法</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>统一矿物</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>奥法工程学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ImmersiveEngineering</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneArteries</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>奥法献祭学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Automagy</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>自动化魔法</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Cyclops Core</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Carpenter's Blocks</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Avaritia</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>无尽贪婪</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是CodeChicken Lib</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>血魔法</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>热力核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>CodeChickenCore</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>鸡块核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>木匠方块</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Carpenter's+Blocks</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>建筑核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是buildcraft-compat</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>植物魔法</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Chunk+Pregenerator</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>CraftArcanum</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔改</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ElectricThaum</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>电力魔法工具</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BloodMagic，EvilCraft，Botania</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ImmersiveEngineering</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ElecCore</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2，ElecCore</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>EssentialThaumaturgy</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>EssentialCraft3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>源质神秘学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，EssentialCraft3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是DummyCore</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>邪恶工艺</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Nihilo</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>无中生有</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Forbidden</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>禁忌魔法</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ForgeMultipart</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Gadomancy</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔像秘经</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Hammerz</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>HeartWork</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>心血结晶</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>InfusionBrewing</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>注魔酿造</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>源质魔法3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>沉浸工程</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>工业时代2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>IndustrialUpgrade</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>工业升级</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Industrialcraft</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Industrialcraft</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>InventoryTweaks</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>R键整理</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑艺术之刃</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade-SlashArts</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Symcalc</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>对称度运算仪</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>奥数投射</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>等价交换</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Railcraft</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>NodalMechanics</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>节点力学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Technomancy</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Tchelper</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘研究帮助</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Tcinventoryscan</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代物品栏扫描</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Tcnodetracker</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘节点追踪</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Tainted-Magic</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>污秽魔法</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>姆亚核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Shamanry</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>巫媒</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Origin</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ParticleLib</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>粒子库</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>铁路</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>DummyCore</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>齿轮核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，DummyCore</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>锤子</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>OmnisCore</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是nei全家</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>橘子核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Mjutils</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，PrjectE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Cyclops Core</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ExtraScepterStaff</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>独角兽权杖</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Boots</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘靴子</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Muya</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Ex-Nihilo</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>独眼核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Localization Optimizer</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代本地化优化</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Not Enough Thaumcraft Tabs</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>无限神秘标签页</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 Tweaks</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>失落遗物学</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Forgotten Relics</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Transmute Liquids</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘标签页</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>液体嬗变</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>星辉生万物重制版</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Astris-Rebirth</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Garden of Glass</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>水晶花园</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置Botania</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>FpsReducer</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Fps减速器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Thermal热力全家，Origin</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>nei添加更多神秘合成类型显示</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘纠缠</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicBases</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicRevelations</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>AWWayofTime</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔法作物</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>区块预生成器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Warden</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicTinkerer</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>IlluminatedBows</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>MagiaNaturalis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>MagicCookies</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>MixedMagic</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>支持拼音搜索与 JEI 风格的关键字匹配</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneEngineering</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ElectroMagicTools</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>巫术</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Omnis Core，Multipart，CodeChicken Lib</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，CodeChicken Lib</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>格雷科技6</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>工艺奥秘,电力神秘</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>库</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft联动是TwilightForest,LycanitesMobsComplete,MoCreatures,SpecialMobs</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，SlashBlade</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是waila-GTNH</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  模组重置了NEI的注册系统会在根目录下写入缓存，模组变动一次就会重写一次。会导致加载时间变长很多。放在了可以替换模组的文件夹下。需要使用可以加载。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>要点</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Aroma1997Core</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>AromaBackup</t>
   </si>
   <si>
     <t>Aroma系列模组核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>备份模组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Aroma1997Core</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>EnderIO</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>高版本加载界面</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>光影修复</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>EnderCore</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>末影核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>末影接口</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Angelica</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>替代optfine</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>NEI包括附属</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Nei合成显示扩展</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>NEI-Integration</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>原版名称</t>
@@ -1287,347 +1290,443 @@
   </si>
   <si>
     <t>前置是Thaumcraft，旧版本译名神秘守望者，还有更古早的叫Thaumic Warden都是这个模组。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>GregTech 6</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft   Thaumcraft 4 Tweaks类似功能</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>会统一矿物辞典所以会在加载时卡住</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Xaeros_Minimap</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Xaero的小地图</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Omnis核心</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘混成</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicHybrid</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘糅合</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，通过Mixin注入的方式修复了联动和神秘4本身的一些问题</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Integration</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘集合</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftAltarCull</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘祭坛稳定器渲染剔除</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，当玩家远离祭坛时，自动“剔除”稳定器方块 的渲染</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，将Thaumcraft模组的机制和要素整合进其他不原生支持 Thaumcraft 的模组里</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 : Patched</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4：修补</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，NemexLib</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>NemexLib</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Nemex库</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘温泉</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Renaissance</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘复兴</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是unimixins-all，DragonAPI ，LOTRMod，所有的材质都未实装</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Deathly Hallows</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>死亡圣器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania，Witchery</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Essentia Pipes</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>管道简化</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Salis Arcana</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>奥秘之盐</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Cybersus</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔能义体</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ItemBlackListFIXED</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>物品黑名单修复版</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>合成冲突消除：修复版</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>RecipeConflict Fixer</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Chromaticraft-AIFixes</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>ChromatiFixes</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：溢出修复</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，修复和其他模组可能导致的工具类数组溢出</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>龙之研究</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>龙之研究前置</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>BrandonsCore</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Draconic-Evolution</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Hell Integrations</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>神秘众戒</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Baubles Expanded和Baubles任选其一</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Avaritia，Botania，Applied Energistics 2，Draconic Evolution，Advanced Solar Panels</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>前置BrandonsCore</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑西风之刃</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>LOTweakR</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元修复</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元另一个修复</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">前置是ChromatiCraft </t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>安装可否</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Bugtorch</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Gtnhlib</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>中文名/注释</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Modernsplash</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>NotenoughIDs-GTNH</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Shadersfixer</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Unimixins-all</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Buildcraft</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Buildcraft-compat</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Jar Checker</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>地狱合集</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>联动模组</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Trop</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicthermae</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicmixins</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manametalmod</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magicbees</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Witchery</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neiaddons</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nechar-GTNH（NotEnoughCharacters）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tcneiadditions</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lotrcrashfix</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeiRecipeHandlers</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeiLotr</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thaumcraft Minus Thaumcraft</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thaumic-Errata</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是Thaumcraft，联动了Grimoire of Gaia，Automagy，Thermal Foundation</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔刀剑包括附属</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是SlashBlade</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlashBlade_DarkRaven</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是Thaumcraft，SlashBlade，SlashBlade_DarkRaven</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Magicalcrops</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manametalmod</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magicbees</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Witchery</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neiaddons</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nechar-GTNH（NotEnoughCharacters）</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tcneiadditions</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lotrcrashfix</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeiRecipeHandlers</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeiLotr</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>以太2包括附属</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔戒包括附属</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>缤纷纪元以及修复</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是Thaumcraft，Industrialcraft，Tainted Magic，Electro Magic Tools（EMT）</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘联动 1.1.2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔刀剑-暗鸦 1.1.2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色名字是作者反编译+修BUG后重新打包的模组。绿色名字是新加的模组后面是整合包版本号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘要素列表多行显示 1.1.2</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1805,6 +1904,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1867,66 +2011,84 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1936,78 +2098,72 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2015,44 +2171,68 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2342,28 +2522,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.92578125" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="72.0703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="86.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="36.0703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="3.640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="51.5703125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.92578125" style="3"/>
+    <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.58203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="72.08203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="86.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36.08203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="60" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.9140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2553,7 @@
       <c r="C1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>296</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -2397,18 +2577,20 @@
       <c r="K1" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>316</v>
       </c>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -2421,20 +2603,20 @@
       <c r="L2" s="4"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>271</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -2444,7 +2626,7 @@
       <c r="I3" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="28" t="s">
         <v>259</v>
       </c>
       <c r="K3" s="16" t="s">
@@ -2455,20 +2637,20 @@
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>271</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="54" t="s">
         <v>91</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -2480,7 +2662,7 @@
       <c r="I4" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="28" t="s">
         <v>288</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -2491,14 +2673,14 @@
       </c>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>271</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2507,7 +2689,7 @@
       <c r="E5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="54" t="s">
         <v>92</v>
       </c>
       <c r="G5" s="16" t="s">
@@ -2519,10 +2701,10 @@
       <c r="I5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>271</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -2530,20 +2712,20 @@
       </c>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="61" t="s">
         <v>147</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -2553,24 +2735,23 @@
         <v>171</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="K6" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>271</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -2579,7 +2760,7 @@
       <c r="E7" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="28" t="s">
         <v>144</v>
       </c>
       <c r="G7" s="16" t="s">
@@ -2589,24 +2770,24 @@
         <v>172</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="K7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>271</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -2615,7 +2796,7 @@
       <c r="E8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="28" t="s">
         <v>149</v>
       </c>
       <c r="G8" s="16" t="s">
@@ -2625,24 +2806,24 @@
         <v>30</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>271</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -2651,7 +2832,7 @@
       <c r="E9" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="28" t="s">
         <v>289</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -2661,24 +2842,24 @@
         <v>172</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>141</v>
+        <v>34</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>271</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -2690,58 +2871,58 @@
       <c r="E10" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="42" t="s">
         <v>271</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>271</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>271</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="42" t="s">
         <v>271</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>345</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="K11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>271</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -2749,11 +2930,11 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2765,7 +2946,7 @@
       <c r="E12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>170</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -2775,12 +2956,12 @@
         <v>175</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>271</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -2788,11 +2969,11 @@
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>304</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -2801,7 +2982,7 @@
       <c r="E13" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="28" t="s">
         <v>169</v>
       </c>
       <c r="G13" s="16" t="s">
@@ -2810,25 +2991,13 @@
       <c r="H13" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -2837,29 +3006,36 @@
       <c r="E14" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="42" t="s">
         <v>271</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="I14" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
       <c r="E15" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -2868,7 +3044,7 @@
       <c r="I15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="28" t="s">
         <v>27</v>
       </c>
       <c r="K15" s="16" t="s">
@@ -2877,23 +3053,23 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="27" t="s">
         <v>143</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>320</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="28" t="s">
         <v>243</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -2903,12 +3079,12 @@
         <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="J16" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="J16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="20" t="s">
         <v>275</v>
       </c>
       <c r="L16" s="3" t="s">
@@ -2916,11 +3092,11 @@
       </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2929,7 +3105,7 @@
       <c r="E17" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="28" t="s">
         <v>186</v>
       </c>
       <c r="G17" s="16" t="s">
@@ -2939,12 +3115,12 @@
         <v>30</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="J17" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="J17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="20" t="s">
         <v>275</v>
       </c>
       <c r="L17" s="3" t="s">
@@ -2952,11 +3128,11 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>153</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -2968,28 +3144,28 @@
       <c r="E18" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -3001,7 +3177,7 @@
       <c r="E19" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="28" t="s">
         <v>189</v>
       </c>
       <c r="G19" s="16" t="s">
@@ -3010,17 +3186,25 @@
       <c r="H19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
+      <c r="I19" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>359</v>
+      </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>164</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -3029,35 +3213,35 @@
       <c r="E20" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="42" t="s">
         <v>271</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="45" t="s">
         <v>271</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="28" t="s">
         <v>81</v>
       </c>
       <c r="G21" s="16" t="s">
@@ -3066,17 +3250,19 @@
       <c r="H21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="I21" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="27" t="s">
         <v>162</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -3088,26 +3274,32 @@
       <c r="E22" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
+      <c r="I22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="27" t="s">
         <v>161</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -3116,7 +3308,7 @@
       <c r="E23" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="28" t="s">
         <v>89</v>
       </c>
       <c r="G23" s="16" t="s">
@@ -3126,24 +3318,24 @@
         <v>30</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="K23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>271</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>159</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -3152,7 +3344,7 @@
       <c r="E24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="28" t="s">
         <v>88</v>
       </c>
       <c r="G24" s="16" t="s">
@@ -3161,22 +3353,34 @@
       <c r="H24" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="I24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="28" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="16" t="s">
@@ -3185,32 +3389,22 @@
       <c r="H25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="28" t="s">
         <v>86</v>
       </c>
       <c r="G26" s="16" t="s">
@@ -3219,70 +3413,64 @@
       <c r="H26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="I26" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="7"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>271</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="31" t="s">
         <v>271</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="26" t="s">
         <v>252</v>
       </c>
       <c r="G28" s="14" t="s">
@@ -3291,22 +3479,34 @@
       <c r="H28" s="3" t="s">
         <v>319</v>
       </c>
+      <c r="I28" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="28" t="s">
         <v>99</v>
       </c>
       <c r="G29" s="16" t="s">
@@ -3315,20 +3515,28 @@
       <c r="H29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="L29" s="5"/>
+      <c r="I29" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="45" t="s">
         <v>271</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -3337,22 +3545,22 @@
       <c r="E30" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="42" t="s">
         <v>271</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="K30" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>271</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -3360,443 +3568,475 @@
       </c>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>271</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>369</v>
-      </c>
-      <c r="G32" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>237</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="36" t="s">
         <v>271</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="G33" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" s="16" t="s">
         <v>271</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>311</v>
+        <v>31</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>271</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="36" t="s">
         <v>271</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="16" t="s">
         <v>271</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="I34" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="K34" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="30" t="s">
         <v>271</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>180</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="G35" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="K35" s="47" t="s">
         <v>271</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>33</v>
+        <v>373</v>
       </c>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="30" t="s">
         <v>271</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>150</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="J36" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="K36" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="G37" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="J37" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="K37" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>373</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="G38" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I38" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="16" t="s">
         <v>271</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="I39" s="63" t="s">
+        <v>405</v>
+      </c>
+      <c r="J39" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="K39" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="35" t="s">
         <v>271</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="16" t="s">
         <v>271</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="I40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>142</v>
+        <v>70</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>271</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>30</v>
+        <v>151</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" s="41" t="s">
         <v>271</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>30</v>
+        <v>336</v>
+      </c>
+      <c r="I42" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="L42" s="24" t="s">
+        <v>406</v>
       </c>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="30" t="s">
         <v>271</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>201</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>335</v>
-      </c>
-      <c r="G44" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" s="41" t="s">
         <v>271</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="C45" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F45" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="G45" s="19" t="s">
+      <c r="C45" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>271</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -3804,50 +4044,50 @@
       </c>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="G46" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G46" s="14" t="s">
         <v>271</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>333</v>
+        <v>30</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>207</v>
       </c>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E47" t="s">
-        <v>384</v>
-      </c>
-      <c r="F47" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="14" t="s">
+      <c r="C47" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E47" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="F47" s="68" t="s">
+        <v>415</v>
+      </c>
+      <c r="G47" s="55" t="s">
         <v>271</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -3855,170 +4095,170 @@
       </c>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="G48" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" s="41" t="s">
         <v>271</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>30</v>
+        <v>332</v>
       </c>
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="G49" s="43" t="s">
+      <c r="C49" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="14" t="s">
         <v>271</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="C50" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E50" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="51" t="s">
-        <v>95</v>
+      <c r="C50" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>96</v>
+      <c r="H50" s="56" t="s">
+        <v>291</v>
       </c>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="36" t="s">
         <v>271</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="30" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="H51" s="26" t="s">
-        <v>291</v>
+      <c r="H51" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="30" t="s">
         <v>271</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>237</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G52" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="15" t="s">
         <v>271</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G53" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G53" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>118</v>
+        <v>411</v>
       </c>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="34" t="s">
         <v>271</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="G54" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="14" t="s">
         <v>271</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -4026,23 +4266,23 @@
       </c>
       <c r="M54" s="5"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G55" s="41" t="s">
         <v>271</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -4050,71 +4290,71 @@
       </c>
       <c r="M55" s="5"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="45" t="s">
         <v>271</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>271</v>
+        <v>276</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M56" s="5"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F57" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>275</v>
+        <v>107</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M57" s="5"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" s="14" t="s">
         <v>271</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -4122,69 +4362,69 @@
       </c>
       <c r="M58" s="5"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>127</v>
+        <v>75</v>
+      </c>
+      <c r="B59" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>271</v>
       </c>
       <c r="H59" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M59" s="5"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>54</v>
+        <v>119</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>120</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>271</v>
@@ -4194,92 +4434,92 @@
       </c>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>120</v>
+        <v>123</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>271</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>271</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>240</v>
+        <v>64</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E64" s="63" t="s">
+        <v>400</v>
+      </c>
+      <c r="F64" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="G64" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>401</v>
       </c>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>271</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F65" s="27" t="s">
         <v>135</v>
       </c>
       <c r="G65" s="14" t="s">
@@ -4290,20 +4530,11 @@
       </c>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B66" s="55" t="s">
-        <v>322</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>271</v>
-      </c>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E66" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F66" s="49" t="s">
         <v>137</v>
       </c>
       <c r="G66" s="14" t="s">
@@ -4314,11 +4545,11 @@
       </c>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E67" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="29" t="s">
+      <c r="F67" s="49" t="s">
         <v>131</v>
       </c>
       <c r="G67" s="14" t="s">
@@ -4329,11 +4560,11 @@
       </c>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E68" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="28" t="s">
         <v>324</v>
       </c>
       <c r="G68" s="11" t="s">
@@ -4344,11 +4575,11 @@
       </c>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E69" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="28" t="s">
         <v>133</v>
       </c>
       <c r="G69" s="14" t="s">
@@ -4359,28 +4590,28 @@
       </c>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E70" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="G70" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="H70" s="25" t="s">
+      <c r="G70" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="H70" s="24" t="s">
         <v>327</v>
       </c>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="66" t="s">
         <v>268</v>
       </c>
       <c r="G71" s="14" t="s">
@@ -4390,11 +4621,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E72" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="28" t="s">
         <v>113</v>
       </c>
       <c r="G72" s="14" t="s">
@@ -4404,25 +4635,25 @@
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E73" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="F73" s="44" t="s">
         <v>140</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="H73" s="25" t="s">
+      <c r="H73" s="24" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E74" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="28" t="s">
         <v>111</v>
       </c>
       <c r="G74" s="14" t="s">
@@ -4432,25 +4663,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E75" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="F75" s="42" t="s">
+      <c r="F75" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="G75" s="43" t="s">
+      <c r="G75" s="41" t="s">
         <v>271</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E76" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="28" t="s">
         <v>104</v>
       </c>
       <c r="G76" s="16" t="s">
@@ -4460,11 +4691,11 @@
         <v>287</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="28" t="s">
         <v>106</v>
       </c>
       <c r="G77" s="16" t="s">
@@ -4474,11 +4705,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E78" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="28" t="s">
         <v>109</v>
       </c>
       <c r="G78" s="14" t="s">
@@ -4488,39 +4719,39 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E79" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="G79" s="19" t="s">
+      <c r="G79" s="18" t="s">
         <v>271</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E80" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="F80" s="45" t="s">
+      <c r="F80" s="43" t="s">
         <v>365</v>
       </c>
-      <c r="G80" s="44" t="s">
+      <c r="G80" s="42" t="s">
         <v>271</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="28" t="s">
         <v>69</v>
       </c>
       <c r="G81" s="16" t="s">
@@ -4531,13 +4762,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I31:L33">
-    <sortCondition ref="I30:I33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:D65">
+    <sortCondition ref="A16:A65"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="I18:L22"/>
-  </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/模组列表.xlsx
+++ b/模组列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B967AD4-6BA0-4202-8EEC-0A28782D070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D9DECA-3D91-458E-94F2-9BA63CE35C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2390" yWindow="20" windowWidth="19170" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="409">
   <si>
     <t>原版名称</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AetherAspects</t>
@@ -60,9 +60,6 @@
     <t>CraftTweaker</t>
   </si>
   <si>
-    <t>EvilCraft</t>
-  </si>
-  <si>
     <t>ModTweaker2</t>
   </si>
   <si>
@@ -88,1193 +85,1157 @@
   </si>
   <si>
     <t>扩展/优化</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>其他模组</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Achgrate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ID拓展GTNH版本</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>修复模组联动的一些BUG</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>GTNH维护的模组的Lib库</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>1.7.10版本的Mixin总和</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>破坏性修复龙API和魔戒的冲突</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>EntityCulling-Unofficial</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>实体渲染机制优化</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是gtnhlib</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：传承</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>LOTRMod</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ChromatiCraft </t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Thaumcraft拓展 前置是DragonAPI </t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Middleearththaumaturgy</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>中土神秘学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是LOTRMod</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔戒nei附属</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔戒合成</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家, NEI Recipe Handlers</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmoothFont</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>平滑字体</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Aether</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Aether</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Gilded-games-util</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Gilded-games-util</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘生物要素扫描</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>TwilightForest</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOBD</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>应用能源2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>天境2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>天境要素扫描</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>以太前置库</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>黑暗神秘学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>暮色森林</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>旅者之器</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘基础学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>SpecialMobs</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>特殊怪物</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>LycanitesMobsComplete</t>
   </si>
   <si>
     <t>恐怖生物</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>MoCreatures-Legacy-Final</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>更多生物分支版本</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>WitchingGadgets</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>巫师宝具</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumaturgical Knowledge</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>TravellersGear</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>WarpTheory</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘扭曲学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcarpentry</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘木匠</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘奥义</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThermalFoundation</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>热力基本</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThermalDynamics</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>热动力学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工艺</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>TofuFactoryR</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工厂重制版</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>林业</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>光明之弓</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔法蜜蜂</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Forestry</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是Forestry</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔法曲奇</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>混合魔法</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>MagicalDecorations</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘装饰</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>自然魔法</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AdvancedThaumaturgy</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>炼金炉篦</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>高等神秘学2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代nei附属</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftGates</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>奥法管道</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BC</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>源质罐子统计</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Polybius</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>更多要素</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>TCBotaniaExoflame</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Talismans2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>护身符2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Machina</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘工匠</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicUtilities</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘实用工具</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic_Upholstery</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumores</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>奥能矿物</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicSanity</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>扭曲修正</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicPipes</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘管道</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，MJUtils</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，nei全家</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Additions</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘领域</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ParticleLib</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Dyes</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘染料</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘力学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Nexus</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicenergistics</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘能源</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Applied Energistics 2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicalchemy</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘炼金学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicEquivalence</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>奥法置换</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumichorizons</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘视界</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicInfusion</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘注魔</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExpansion</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘膨胀</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExploration</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘探险</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘守望者</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘启示</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔法金属</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>量子魔法</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一矿物</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>奥法工程学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ImmersiveEngineering</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneArteries</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>奥法献祭学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Automagy</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>自动化魔法</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置是Cyclops Core</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Carpenter's Blocks</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Avaritia</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>无尽贪婪</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是CodeChicken Lib</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>血魔法</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>热力核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>CodeChickenCore</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>鸡块核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>木匠方块</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Carpenter's+Blocks</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>建筑核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是buildcraft-compat</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>植物魔法</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Chunk+Pregenerator</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>CraftArcanum</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔改</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ElectricThaum</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>电力魔法工具</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BloodMagic，EvilCraft，Botania</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ImmersiveEngineering</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ElecCore</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2，ElecCore</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>EssentialThaumaturgy</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>EssentialCraft3</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>源质神秘学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，EssentialCraft3</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是DummyCore</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪恶工艺</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Nihilo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>无中生有</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Forbidden</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>禁忌魔法</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ForgeMultipart</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Gadomancy</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔像秘经</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Hammerz</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>HeartWork</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>心血结晶</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>InfusionBrewing</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>注魔酿造</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>源质魔法3</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>沉浸工程</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>工业时代2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>IndustrialUpgrade</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>工业升级</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Industrialcraft</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Industrialcraft</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>InventoryTweaks</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>R键整理</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑艺术之刃</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade-SlashArts</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Symcalc</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>对称度运算仪</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>奥数投射</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>等价交换</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Railcraft</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>NodalMechanics</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>节点力学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Technomancy</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Tchelper</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘研究帮助</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Tcinventoryscan</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代物品栏扫描</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Tcnodetracker</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘节点追踪</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Tainted-Magic</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>污秽魔法</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>姆亚核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Shamanry</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>巫媒</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Origin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ParticleLib</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>粒子库</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>铁路</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>DummyCore</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>齿轮核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，DummyCore</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>锤子</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>OmnisCore</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是nei全家</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>橘子核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Mjutils</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，PrjectE</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cyclops Core</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ExtraScepterStaff</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>独角兽权杖</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Boots</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘靴子</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Muya</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Ex-Nihilo</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>独眼核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Localization Optimizer</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代本地化优化</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Not Enough Thaumcraft Tabs</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>无限神秘标签页</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 Tweaks</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>失落遗物学</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Forgotten Relics</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Transmute Liquids</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘标签页</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>液体嬗变</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>星辉生万物重制版</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Astris-Rebirth</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Garden of Glass</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>水晶花园</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置Botania</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>FpsReducer</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Fps减速器</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Thermal热力全家，Origin</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>nei添加更多神秘合成类型显示</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘纠缠</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicBases</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicRevelations</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AWWayofTime</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔法作物</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>区块预生成器</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Warden</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicTinkerer</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>IlluminatedBows</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>MagiaNaturalis</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>MagicCookies</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>MixedMagic</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>支持拼音搜索与 JEI 风格的关键字匹配</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneEngineering</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ElectroMagicTools</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>巫术</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Omnis Core，Multipart，CodeChicken Lib</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，CodeChicken Lib</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>格雷科技6</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>工艺奥秘,电力神秘</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>库</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft联动是TwilightForest,LycanitesMobsComplete,MoCreatures,SpecialMobs</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，SlashBlade</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是waila-GTNH</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  模组重置了NEI的注册系统会在根目录下写入缓存，模组变动一次就会重写一次。会导致加载时间变长很多。放在了可以替换模组的文件夹下。需要使用可以加载。</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>要点</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Aroma1997Core</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>AromaBackup</t>
   </si>
   <si>
     <t>Aroma系列模组核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>备份模组</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Aroma1997Core</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>EnderIO</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>高版本加载界面</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>光影修复</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>EnderCore</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>末影核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>末影接口</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Angelica</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>替代optfine</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>NEI包括附属</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Nei合成显示扩展</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>NEI-Integration</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>原版名称</t>
@@ -1290,411 +1251,439 @@
   </si>
   <si>
     <t>前置是Thaumcraft，旧版本译名神秘守望者，还有更古早的叫Thaumic Warden都是这个模组。</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>GregTech 6</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft   Thaumcraft 4 Tweaks类似功能</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>会统一矿物辞典所以会在加载时卡住</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Xaeros_Minimap</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Xaero的小地图</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Omnis核心</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘混成</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicHybrid</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘糅合</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，通过Mixin注入的方式修复了联动和神秘4本身的一些问题</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Integration</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘集合</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftAltarCull</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘祭坛稳定器渲染剔除</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，当玩家远离祭坛时，自动“剔除”稳定器方块 的渲染</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，将Thaumcraft模组的机制和要素整合进其他不原生支持 Thaumcraft 的模组里</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 : Patched</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4：修补</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，NemexLib</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>NemexLib</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Nemex库</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘温泉</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Renaissance</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘复兴</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是unimixins-all，DragonAPI ，LOTRMod，所有的材质都未实装</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Deathly Hallows</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>死亡圣器</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania，Witchery</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Essentia Pipes</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>管道简化</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Salis Arcana</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>奥秘之盐</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Cybersus</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔能义体</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ItemBlackListFIXED</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>物品黑名单修复版</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>合成冲突消除：修复版</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>RecipeConflict Fixer</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chromaticraft-AIFixes</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>ChromatiFixes</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：溢出修复</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，修复和其他模组可能导致的工具类数组溢出</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>龙之研究</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>龙之研究前置</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>BrandonsCore</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Draconic-Evolution</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Hell Integrations</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘众戒</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Baubles Expanded和Baubles任选其一</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Avaritia，Botania，Applied Energistics 2，Draconic Evolution，Advanced Solar Panels</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置BrandonsCore</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑西风之刃</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>LOTweakR</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元修复</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元另一个修复</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">前置是ChromatiCraft </t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>安装可否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Bugtorch</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Gtnhlib</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>中文名/注释</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Modernsplash</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>NotenoughIDs-GTNH</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadersfixer</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Unimixins-all</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Buildcraft</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Buildcraft-compat</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Jar Checker</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>地狱合集</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>联动模组</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Trop</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicthermae</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicmixins</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Manametalmod</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Magicbees</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Witchery</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Neiaddons</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Nechar-GTNH（NotEnoughCharacters）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Tcneiadditions</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Lotrcrashfix</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>NeiRecipeHandlers</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>NeiLotr</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Minus Thaumcraft</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Errata</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，联动了Grimoire of Gaia，Automagy，Thermal Foundation</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑包括附属</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是SlashBlade</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade_DarkRaven</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，SlashBlade，SlashBlade_DarkRaven</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Magicalcrops</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>以太2包括附属</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>魔戒包括附属</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元以及修复</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrialcraft，Tainted Magic，Electro Magic Tools（EMT）</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘联动 1.1.2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑-暗鸦 1.1.2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>红色名字是作者反编译+修BUG后重新打包的模组。绿色名字是新加的模组后面是整合包版本号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>神秘要素列表多行显示 1.1.2</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chromaticraft-AIFixes（Zaifix）</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAOPC</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>另一版本的统一矿物</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarbonConfig</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chunk+Pregenerator的核心</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是CarbonConfig</t>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2011,229 +2000,236 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - 着色 5" xfId="3" builtinId="46"/>
@@ -2522,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2548,55 +2544,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="4" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2605,418 +2601,421 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>406</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>271</v>
+        <v>407</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>262</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>271</v>
+      <c r="C8" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>376</v>
+        <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="I9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="K9" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>271</v>
+        <v>364</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="J12" s="26" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>271</v>
+        <v>366</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>262</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>271</v>
+        <v>262</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3024,137 +3023,132 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>262</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>320</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>50</v>
+        <v>404</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>405</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>271</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D17"/>
       <c r="E17" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>154</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="J18" s="57"/>
       <c r="K18" s="57"/>
@@ -3162,65 +3156,68 @@
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>155</v>
+      <c r="A19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>164</v>
+      <c r="A20" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>271</v>
+        <v>262</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -3230,28 +3227,28 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>271</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -3260,161 +3257,161 @@
     </row>
     <row r="22" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>163</v>
+        <v>350</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>262</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>271</v>
+        <v>262</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C25" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="F25" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -3426,34 +3423,34 @@
         <v>4</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M27" s="5"/>
     </row>
@@ -3462,160 +3459,160 @@
         <v>5</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>271</v>
+        <v>351</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>368</v>
+        <v>225</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>271</v>
+        <v>175</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>262</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>271</v>
+        <v>296</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>262</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3624,166 +3621,163 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="46" t="s">
+      <c r="K33" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>302</v>
+        <v>171</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>271</v>
+        <v>188</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="J34" s="46" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K34" s="47" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>195</v>
-      </c>
       <c r="C35" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="K35" s="47" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3792,816 +3786,789 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>271</v>
+        <v>253</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I39" s="63" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="J39" s="65" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>263</v>
+        <v>190</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J40" s="50" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="I41" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J41" s="49" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="I42" s="58" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>271</v>
+        <v>341</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>262</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>271</v>
+        <v>232</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>271</v>
+        <v>161</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>262</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="G47" s="55" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>271</v>
+        <v>326</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F49" s="48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>225</v>
+        <v>229</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>312</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H50" s="56" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>271</v>
+        <v>221</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>262</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>271</v>
+        <v>344</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>262</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>212</v>
+        <v>54</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>271</v>
+        <v>71</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>42</v>
+        <v>69</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>70</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B58" s="53" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E58" s="60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F58" s="61" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E60" s="59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="53" t="s">
-        <v>56</v>
+        <v>310</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>311</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F62" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H62" s="3" t="s">
+      <c r="F63" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="M62" s="5"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>129</v>
-      </c>
       <c r="G63" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>271</v>
-      </c>
       <c r="E64" s="63" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="F64" s="64" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G64" s="62" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>271</v>
-      </c>
       <c r="E65" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E66" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E67" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F67" s="49" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E68" s="3" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M68" s="5"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E69" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>133</v>
+      <c r="E69" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" s="66" t="s">
+        <v>129</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E70" s="3" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="M70" s="5"/>
     </row>
@@ -4609,164 +4576,164 @@
       <c r="A71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F71" s="66" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E72" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E73" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F73" s="44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E74" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E75" s="3" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E76" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E77" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E78" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E79" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E80" s="3" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F80" s="43" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:D65">
-    <sortCondition ref="A16:A65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D15">
+    <sortCondition ref="A3:A15"/>
   </sortState>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/模组列表.xlsx
+++ b/模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D9DECA-3D91-458E-94F2-9BA63CE35C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713BC37-90A6-47D5-BB91-DFC93DA8D4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="413">
   <si>
     <t>原版名称</t>
     <phoneticPr fontId="26" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>ID拓展GTNH版本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>修复模组联动的一些BUG</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -128,10 +124,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>前置是gtnhlib</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>魔戒：传承</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -619,10 +611,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>前置是CodeChicken Lib</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>血魔法</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -947,10 +935,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>前置是nei全家</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>橘子核心</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1167,10 +1151,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>前置是waila-GTNH</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  模组重置了NEI的注册系统会在根目录下写入缓存，模组变动一次就会重写一次。会导致加载时间变长很多。放在了可以替换模组的文件夹下。需要使用可以加载。</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1490,10 +1470,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>NotenoughIDs-GTNH</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Unimixins-all</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1630,10 +1606,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>神秘要素列表多行显示 1.1.2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>Chromaticraft-AIFixes（Zaifix）</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1655,6 +1627,49 @@
   </si>
   <si>
     <t>前置是CarbonConfig</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动解锁所有神秘时代研究1.2.2</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>falsepatternlib</t>
+  </si>
+  <si>
+    <t>chunkapi</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>endlessids</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>我看到了什么</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdmla</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wawla</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>waila的fork版本</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>waila的附属</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是NEI全套</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是NEI全套</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1662,7 +1677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1938,6 +1953,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2181,55 +2203,55 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - 着色 5" xfId="3" builtinId="46"/>
@@ -2518,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2527,9 +2549,9 @@
     <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.58203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="72.08203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="86.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="36.08203125" style="3" customWidth="1"/>
@@ -2544,37 +2566,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M1" s="5"/>
     </row>
@@ -2585,14 +2607,14 @@
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2601,421 +2623,414 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="54" t="s">
-        <v>88</v>
-      </c>
       <c r="G5" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>142</v>
+        <v>258</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>140</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>262</v>
+        <v>400</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>258</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="J7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="10"/>
       <c r="E14" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -3024,200 +3039,173 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>20</v>
+        <v>362</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G16" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>266</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B17" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="E17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="D17"/>
-      <c r="E17" s="3" t="s">
+      <c r="L17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F19" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>182</v>
-      </c>
       <c r="G19" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L19" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="F20" s="48" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -3227,28 +3215,28 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>262</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -3257,161 +3245,161 @@
     </row>
     <row r="22" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>262</v>
+        <v>144</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>156</v>
+      <c r="A23" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>146</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>370</v>
+        <v>3</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>155</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>262</v>
+        <v>345</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>344</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>258</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>262</v>
+        <v>363</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -3420,199 +3408,199 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>262</v>
+        <v>364</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>230</v>
+        <v>412</v>
       </c>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>266</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>230</v>
+        <v>412</v>
       </c>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>348</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>356</v>
+        <v>148</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>258</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>230</v>
+        <v>412</v>
       </c>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>225</v>
+        <v>4</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>230</v>
+        <v>412</v>
       </c>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>262</v>
+        <v>158</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>258</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>262</v>
+        <v>346</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3621,163 +3609,163 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>262</v>
+        <v>223</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>258</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="K33" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="L33" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J33" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>258</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J34" s="46" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K34" s="47" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>262</v>
+        <v>291</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K35" s="47" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>262</v>
+        <v>292</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -3786,946 +3774,996 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>254</v>
+        <v>174</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>258</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I39" s="63" t="s">
-        <v>392</v>
-      </c>
-      <c r="J39" s="65" t="s">
-        <v>400</v>
+        <v>27</v>
+      </c>
+      <c r="I39" s="62" t="s">
+        <v>386</v>
+      </c>
+      <c r="J39" s="64" t="s">
+        <v>394</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J40" s="50" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>262</v>
+        <v>249</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J41" s="49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I42" s="58" t="s">
-        <v>184</v>
+        <v>320</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>181</v>
       </c>
       <c r="J42" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>342</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>262</v>
+        <v>190</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>258</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="F43" s="49" t="s">
-        <v>248</v>
-      </c>
       <c r="G43" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="G44" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="E45" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>262</v>
+        <v>336</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>258</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="F47" s="71" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="E47" s="67" t="s">
-        <v>386</v>
-      </c>
-      <c r="F47" s="68" t="s">
-        <v>402</v>
-      </c>
-      <c r="G47" s="55" t="s">
-        <v>262</v>
-      </c>
       <c r="H47" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>262</v>
+        <v>56</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>258</v>
       </c>
       <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F49" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>230</v>
+        <v>6</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>258</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="H50" s="56" t="s">
-        <v>282</v>
+        <v>258</v>
+      </c>
+      <c r="H50" s="55" t="s">
+        <v>278</v>
       </c>
       <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>262</v>
+        <v>321</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>205</v>
+        <v>226</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>307</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>411</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>262</v>
+        <v>218</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>258</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M54" s="5"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>262</v>
+        <v>219</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>258</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="53" t="s">
-        <v>72</v>
+        <v>8</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C56" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F56" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>266</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>262</v>
+        <v>339</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>258</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M57" s="5"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B58" s="53" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="F58" s="61" t="s">
-        <v>123</v>
+        <v>258</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="60" t="s">
+        <v>121</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="E59" s="59" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="E59" s="58" t="s">
+        <v>256</v>
       </c>
       <c r="F59" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="E60" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" s="58" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B62" s="52" t="s">
-        <v>311</v>
+        <v>61</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>50</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F62" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="M62" s="5"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>258</v>
+      </c>
       <c r="E63" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E64" s="63" t="s">
-        <v>387</v>
-      </c>
-      <c r="F64" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="G64" s="62" t="s">
-        <v>390</v>
+      <c r="A64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="F64" s="63" t="s">
+        <v>393</v>
+      </c>
+      <c r="G64" s="61" t="s">
+        <v>384</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M64" s="5"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>258</v>
+      </c>
       <c r="E65" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M65" s="5"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E66" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M66" s="5"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
       <c r="E67" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="F69" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="G67" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M67" s="5"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E68" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M68" s="5"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E69" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="F69" s="66" t="s">
-        <v>129</v>
-      </c>
       <c r="G69" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M69" s="5"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E70" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M70" s="5"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="F71" s="66" t="s">
-        <v>259</v>
+      <c r="E71" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" s="65" t="s">
+        <v>255</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E72" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E73" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F73" s="44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E74" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E75" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E76" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E77" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E78" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E79" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E80" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F80" s="43" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/模组列表.xlsx
+++ b/模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8713BC37-90A6-47D5-BB91-DFC93DA8D4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC0E182-A659-4C87-8109-A4070D101D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="418">
   <si>
     <t>原版名称</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>AetherAspects</t>
@@ -85,1137 +85,1137 @@
   </si>
   <si>
     <t>扩展/优化</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>其他模组</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Achgrate</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>修复模组联动的一些BUG</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>GTNH维护的模组的Lib库</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>1.7.10版本的Mixin总和</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>破坏性修复龙API和魔戒的冲突</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>EntityCulling-Unofficial</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>实体渲染机制优化</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：传承</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>LOTRMod</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ChromatiCraft </t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Thaumcraft拓展 前置是DragonAPI </t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Middleearththaumaturgy</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>中土神秘学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是LOTRMod</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔戒nei附属</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔戒合成</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家, NEI Recipe Handlers</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Aether</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Aether</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Gilded-games-util</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Gilded-games-util</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘生物要素扫描</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>TwilightForest</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>应用能源2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>天境2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>天境要素扫描</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>以太前置库</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>黑暗神秘学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>暮色森林</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>旅者之器</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘基础学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>SpecialMobs</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>特殊怪物</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>LycanitesMobsComplete</t>
   </si>
   <si>
     <t>恐怖生物</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>MoCreatures-Legacy-Final</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>更多生物分支版本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>WitchingGadgets</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>巫师宝具</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumaturgical Knowledge</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>TravellersGear</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>WarpTheory</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘扭曲学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcarpentry</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘木匠</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘奥义</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThermalFoundation</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>热力基本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThermalDynamics</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>热动力学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工艺</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>TofuFactoryR</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工厂重制版</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>林业</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>光明之弓</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔法蜜蜂</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Forestry</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是Forestry</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔法曲奇</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>混合魔法</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>MagicalDecorations</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘装饰</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>自然魔法</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>AdvancedThaumaturgy</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>炼金炉篦</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>高等神秘学2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代nei附属</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftGates</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>奥法管道</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BC</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>源质罐子统计</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Polybius</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>更多要素</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>TCBotaniaExoflame</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Talismans2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>护身符2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Machina</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘工匠</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicUtilities</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘实用工具</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic_Upholstery</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumores</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>奥能矿物</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicSanity</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>扭曲修正</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicPipes</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘管道</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，MJUtils</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，nei全家</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Additions</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘领域</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ParticleLib</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Dyes</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘染料</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘力学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Nexus</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicenergistics</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘能源</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Applied Energistics 2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicalchemy</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘炼金学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicEquivalence</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>奥法置换</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumichorizons</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘视界</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicInfusion</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘注魔</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExpansion</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘膨胀</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExploration</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘探险</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘守望者</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘启示</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔法金属</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>量子魔法</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>奥法工程学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ImmersiveEngineering</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneArteries</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>奥法献祭学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Automagy</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>自动化魔法</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Carpenter's Blocks</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Avaritia</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>无尽贪婪</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>血魔法</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>热力核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>CodeChickenCore</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>鸡块核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>木匠方块</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Carpenter's+Blocks</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>建筑核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是buildcraft-compat</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>植物魔法</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Chunk+Pregenerator</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>CraftArcanum</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ElectricThaum</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>电力魔法工具</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BloodMagic，EvilCraft，Botania</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ImmersiveEngineering</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ElecCore</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2，ElecCore</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>EssentialThaumaturgy</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>EssentialCraft3</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>源质神秘学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，EssentialCraft3</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是DummyCore</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Nihilo</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>无中生有</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Forbidden</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>禁忌魔法</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ForgeMultipart</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Gadomancy</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔像秘经</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Hammerz</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>HeartWork</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>心血结晶</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>InfusionBrewing</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>注魔酿造</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>源质魔法3</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>沉浸工程</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>工业时代2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>IndustrialUpgrade</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>工业升级</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Industrialcraft</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Industrialcraft</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>InventoryTweaks</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>R键整理</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑艺术之刃</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade-SlashArts</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Symcalc</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>对称度运算仪</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>奥数投射</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>等价交换</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Railcraft</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>NodalMechanics</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>节点力学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Technomancy</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Tchelper</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘研究帮助</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Tcinventoryscan</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代物品栏扫描</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Tcnodetracker</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘节点追踪</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Tainted-Magic</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>污秽魔法</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>姆亚核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Shamanry</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>巫媒</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Origin</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ParticleLib</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>粒子库</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>铁路</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>DummyCore</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>齿轮核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，DummyCore</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>锤子</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>OmnisCore</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>橘子核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Mjutils</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，PrjectE</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ExtraScepterStaff</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>独角兽权杖</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Boots</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘靴子</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Muya</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Ex-Nihilo</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Localization Optimizer</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代本地化优化</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Not Enough Thaumcraft Tabs</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>无限神秘标签页</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 Tweaks</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>失落遗物学</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Forgotten Relics</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Transmute Liquids</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘标签页</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>液体嬗变</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>星辉生万物重制版</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Astris-Rebirth</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Garden of Glass</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>水晶花园</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置Botania</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>FpsReducer</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Fps减速器</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Thermal热力全家，Origin</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>nei添加更多神秘合成类型显示</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘纠缠</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicBases</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicRevelations</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>AWWayofTime</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔法作物</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>区块预生成器</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Warden</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicTinkerer</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>IlluminatedBows</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>MagiaNaturalis</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>MagicCookies</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>MixedMagic</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>支持拼音搜索与 JEI 风格的关键字匹配</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneEngineering</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ElectroMagicTools</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>巫术</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Omnis Core，Multipart，CodeChicken Lib</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，CodeChicken Lib</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>格雷科技6</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>工艺奥秘,电力神秘</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>库</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft联动是TwilightForest,LycanitesMobsComplete,MoCreatures,SpecialMobs</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，SlashBlade</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  模组重置了NEI的注册系统会在根目录下写入缓存，模组变动一次就会重写一次。会导致加载时间变长很多。放在了可以替换模组的文件夹下。需要使用可以加载。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>要点</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Aroma1997Core</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>AromaBackup</t>
   </si>
   <si>
     <t>Aroma系列模组核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>备份模组</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Aroma1997Core</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>EnderIO</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>高版本加载界面</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>EnderCore</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>末影核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>末影接口</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Angelica</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>替代optfine</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>NEI包括附属</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Nei合成显示扩展</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>NEI-Integration</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>原版名称</t>
@@ -1231,458 +1231,487 @@
   </si>
   <si>
     <t>前置是Thaumcraft，旧版本译名神秘守望者，还有更古早的叫Thaumic Warden都是这个模组。</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>GregTech 6</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft   Thaumcraft 4 Tweaks类似功能</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Xaeros_Minimap</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Xaero的小地图</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Omnis核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘混成</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicHybrid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘糅合</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，通过Mixin注入的方式修复了联动和神秘4本身的一些问题</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Integration</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘集合</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftAltarCull</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘祭坛稳定器渲染剔除</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，当玩家远离祭坛时，自动“剔除”稳定器方块 的渲染</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，将Thaumcraft模组的机制和要素整合进其他不原生支持 Thaumcraft 的模组里</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 : Patched</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4：修补</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，NemexLib</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>NemexLib</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Nemex库</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘温泉</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Renaissance</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘复兴</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是unimixins-all，DragonAPI ，LOTRMod，所有的材质都未实装</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Deathly Hallows</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>死亡圣器</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania，Witchery</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Essentia Pipes</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>管道简化</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Salis Arcana</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>奥秘之盐</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Cybersus</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔能义体</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ItemBlackListFIXED</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>物品黑名单修复版</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>合成冲突消除：修复版</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>RecipeConflict Fixer</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ChromatiFixes</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：溢出修复</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，修复和其他模组可能导致的工具类数组溢出</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>龙之研究</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>龙之研究前置</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>BrandonsCore</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Draconic-Evolution</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Hell Integrations</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘众戒</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Baubles Expanded和Baubles任选其一</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Avaritia，Botania，Applied Energistics 2，Draconic Evolution，Advanced Solar Panels</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置BrandonsCore</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑西风之刃</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>LOTweakR</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元修复</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元另一个修复</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">前置是ChromatiCraft </t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>安装可否</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Bugtorch</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Gtnhlib</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>中文名/注释</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Modernsplash</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Unimixins-all</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Buildcraft</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Buildcraft-compat</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Jar Checker</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>地狱合集</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>联动模组</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Trop</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicthermae</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicmixins</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Manametalmod</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Magicbees</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Witchery</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Neiaddons</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Nechar-GTNH（NotEnoughCharacters）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Tcneiadditions</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Lotrcrashfix</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>NeiRecipeHandlers</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>NeiLotr</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Minus Thaumcraft</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Errata</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，联动了Grimoire of Gaia，Automagy，Thermal Foundation</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑包括附属</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是SlashBlade</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade_DarkRaven</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，SlashBlade，SlashBlade_DarkRaven</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Magicalcrops</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>以太2包括附属</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>魔戒包括附属</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元以及修复</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrialcraft，Tainted Magic，Electro Magic Tools（EMT）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>神秘联动 1.1.2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑-暗鸦 1.1.2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>红色名字是作者反编译+修BUG后重新打包的模组。绿色名字是新加的模组后面是整合包版本号</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Chromaticraft-AIFixes（Zaifix）</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>JAOPC</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>另一版本的统一矿物</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>CarbonConfig</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Chunk+Pregenerator的核心</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>前置是CarbonConfig</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>自动解锁所有神秘时代研究1.2.2</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunkapi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>endlessids</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>我看到了什么</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdmla</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wawla</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>waila的fork版本</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>waila的附属</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是NEI全套</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是NEI全套</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展所有ID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>T+C3:C77</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>falsepatternlib</t>
-  </si>
-  <si>
-    <t>chunkapi</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>endlessids</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>我看到了什么</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>wdmla</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wawla</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>waila的fork版本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>waila的附属</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置是NEI全套</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置是NEI全套</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置是chunkapi，falsepatternlib</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>对非 libraries 模组进行版本安全的依赖处理</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>将自定义数据添加到区块的模组</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2022,195 +2051,192 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2218,11 +2244,26 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2230,28 +2271,21 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - 着色 5" xfId="3" builtinId="46"/>
@@ -2540,14 +2574,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.58203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="82.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" style="3" bestFit="1" customWidth="1"/>
@@ -2629,7 +2663,7 @@
         <v>294</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>258</v>
+        <v>413</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>26</v>
@@ -3013,10 +3047,14 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="10"/>
+        <v>414</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>258</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>330</v>
       </c>
@@ -3073,7 +3111,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>417</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>258</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>230</v>
@@ -3103,7 +3147,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>415</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>175</v>
@@ -3438,7 +3491,7 @@
         <v>258</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M27" s="5"/>
     </row>
@@ -3474,7 +3527,7 @@
         <v>258</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M28" s="5"/>
     </row>
@@ -3510,7 +3563,7 @@
         <v>258</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M29" s="5"/>
     </row>
@@ -3546,7 +3599,7 @@
         <v>258</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M30" s="5"/>
     </row>
@@ -4208,7 +4261,7 @@
         <v>258</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>232</v>
@@ -4529,7 +4582,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4549,10 +4602,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C68" s="30" t="s">
         <v>258</v>
@@ -4573,10 +4626,10 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C69" s="30" t="s">
         <v>258</v>
@@ -4770,7 +4823,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D15">
     <sortCondition ref="A3:A15"/>
   </sortState>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/模组列表.xlsx
+++ b/模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC0E182-A659-4C87-8109-A4070D101D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECABC40-9442-4773-8373-2D39C3D97C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="417">
   <si>
     <t>原版名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AetherAspects</t>
@@ -85,1137 +85,1137 @@
   </si>
   <si>
     <t>扩展/优化</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>其他模组</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Achgrate</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>修复模组联动的一些BUG</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>GTNH维护的模组的Lib库</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>1.7.10版本的Mixin总和</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>破坏性修复龙API和魔戒的冲突</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>EntityCulling-Unofficial</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>实体渲染机制优化</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：传承</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>LOTRMod</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ChromatiCraft </t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Thaumcraft拓展 前置是DragonAPI </t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Middleearththaumaturgy</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>中土神秘学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是LOTRMod</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔戒nei附属</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔戒合成</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，nei全家, NEI Recipe Handlers</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Aether</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Aether</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Gilded-games-util</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Gilded-games-util</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘生物要素扫描</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>TwilightForest</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>应用能源2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>天境2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>天境要素扫描</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>以太前置库</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>黑暗神秘学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>暮色森林</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>旅者之器</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘基础学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>SpecialMobs</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>特殊怪物</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>LycanitesMobsComplete</t>
   </si>
   <si>
     <t>恐怖生物</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MoCreatures-Legacy-Final</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>更多生物分支版本</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>WitchingGadgets</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>巫师宝具</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumaturgical Knowledge</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>TravellersGear</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>WarpTheory</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘扭曲学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcarpentry</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘木匠</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘奥义</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThermalFoundation</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>热力基本</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThermalDynamics</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>热动力学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工艺</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>TofuFactoryR</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>豆腐工厂重制版</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>林业</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>光明之弓</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔法蜜蜂</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Forestry</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置是Forestry</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔法曲奇</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>混合魔法</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MagicalDecorations</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘装饰</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>自然魔法</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AdvancedThaumaturgy</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>炼金炉篦</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>高等神秘学2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代nei附属</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftGates</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>奥法管道</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BC</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>源质罐子统计</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Polybius</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>更多要素</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>TCBotaniaExoflame</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Talismans2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>护身符2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Machina</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘工匠</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicUtilities</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘实用工具</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic_Upholstery</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumores</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>奥能矿物</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicSanity</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>扭曲修正</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicPipes</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘管道</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，MJUtils</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，nei全家</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Additions</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘领域</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ParticleLib</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Dyes</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘染料</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘力学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Nexus</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicenergistics</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘能源</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Applied Energistics 2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicalchemy</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘炼金学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicEquivalence</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>奥法置换</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumichorizons</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘视界</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicInfusion</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘注魔</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExpansion</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘膨胀</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicExploration</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘探险</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘守望者</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘启示</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔法金属</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>量子魔法</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>奥法工程学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ImmersiveEngineering</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneArteries</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>奥法献祭学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Automagy</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>自动化魔法</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Carpenter's Blocks</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Avaritia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>无尽贪婪</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>血魔法</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>热力核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>CodeChickenCore</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>鸡块核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>木匠方块</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Carpenter's+Blocks</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>建筑核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是buildcraft-compat</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>植物魔法</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Chunk+Pregenerator</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>CraftArcanum</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔改</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ElectricThaum</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>电力魔法工具</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，BloodMagic，EvilCraft，Botania</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，ImmersiveEngineering</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ElecCore</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrial Craft 2，ElecCore</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>EssentialThaumaturgy</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>EssentialCraft3</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>源质神秘学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，EssentialCraft3</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是DummyCore</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘电动核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Nihilo</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>无中生有</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Forbidden</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>禁忌魔法</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ForgeMultipart</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Gadomancy</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔像秘经</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Hammerz</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>HeartWork</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>心血结晶</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>InfusionBrewing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>注魔酿造</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>源质魔法3</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>沉浸工程</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>工业时代2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>IndustrialUpgrade</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>工业升级</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Industrialcraft</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Industrialcraft</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>InventoryTweaks</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>R键整理</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑艺术之刃</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade-SlashArts</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Symcalc</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>对称度运算仪</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>奥数投射</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>等价交换</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Railcraft</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>NodalMechanics</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>节点力学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Technomancy</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Tchelper</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘研究帮助</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Tcinventoryscan</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代物品栏扫描</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Tcnodetracker</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘节点追踪</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Tainted-Magic</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>污秽魔法</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>姆亚核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Shamanry</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>巫媒</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Origin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ParticleLib</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>粒子库</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>铁路</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>DummyCore</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>齿轮核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，DummyCore</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>锤子</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>OmnisCore</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>橘子核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Mjutils</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，PrjectE</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ExtraScepterStaff</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>独角兽权杖</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Boots</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘靴子</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Muya</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft拓展 前置Ex-Nihilo</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Localization Optimizer</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代本地化优化</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Not Enough Thaumcraft Tabs</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>无限神秘标签页</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 Tweaks</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>失落遗物学</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Forgotten Relics</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Transmute Liquids</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘标签页</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>液体嬗变</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>星辉生万物重制版</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Ex-Astris-Rebirth</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Garden of Glass</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>水晶花园</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置Botania</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>FpsReducer</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Fps减速器</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Thermal热力全家，Origin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>nei添加更多神秘合成类型显示</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘纠缠</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicBases</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicRevelations</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AWWayofTime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔法作物</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>区块预生成器</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Warden</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicTinkerer</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>IlluminatedBows</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MagiaNaturalis</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MagicCookies</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>MixedMagic</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>支持拼音搜索与 JEI 风格的关键字匹配</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ArcaneEngineering</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ElectroMagicTools</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>巫术</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Omnis Core，Multipart，CodeChicken Lib</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，CodeChicken Lib</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>格雷科技6</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>工艺奥秘,电力神秘</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>库</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft联动是TwilightForest,LycanitesMobsComplete,MoCreatures,SpecialMobs</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，SlashBlade</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  模组重置了NEI的注册系统会在根目录下写入缓存，模组变动一次就会重写一次。会导致加载时间变长很多。放在了可以替换模组的文件夹下。需要使用可以加载。</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>要点</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Aroma1997Core</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>AromaBackup</t>
   </si>
   <si>
     <t>Aroma系列模组核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>备份模组</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Aroma1997Core</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>EnderIO</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>高版本加载界面</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>EnderCore</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>末影核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>末影接口</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Angelica</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>替代optfine</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>NEI包括附属</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Nei合成显示扩展</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>NEI-Integration</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>原版名称</t>
@@ -1231,479 +1231,483 @@
   </si>
   <si>
     <t>前置是Thaumcraft，旧版本译名神秘守望者，还有更古早的叫Thaumic Warden都是这个模组。</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>GregTech 6</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft   Thaumcraft 4 Tweaks类似功能</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Xaeros_Minimap</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Xaero的小地图</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Omnis核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘混成</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumicHybrid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘糅合</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，通过Mixin注入的方式修复了联动和神秘4本身的一些问题</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Integration</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘集合</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ThaumcraftAltarCull</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘祭坛稳定器渲染剔除</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，当玩家远离祭坛时，自动“剔除”稳定器方块 的渲染</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，将Thaumcraft模组的机制和要素整合进其他不原生支持 Thaumcraft 的模组里</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft 4 : Patched</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘时代4：修补</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，NemexLib</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>NemexLib</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Nemex库</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘温泉</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic Renaissance</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘复兴</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是unimixins-all，DragonAPI ，LOTRMod，所有的材质都未实装</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Deathly Hallows</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>死亡圣器</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Botania，Witchery</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Essentia Pipes</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>管道简化</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Salis Arcana</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>奥秘之盐</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Cybersus</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔能义体</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ItemBlackListFIXED</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>物品黑名单修复版</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>合成冲突消除：修复版</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>RecipeConflict Fixer</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>ChromatiFixes</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔戒：溢出修复</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是LOTRMod，修复和其他模组可能导致的工具类数组溢出</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>龙之研究</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>龙之研究前置</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>BrandonsCore</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Draconic-Evolution</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Hell Integrations</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘众戒</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Baubles Expanded和Baubles任选其一</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Avaritia，Botania，Applied Energistics 2，Draconic Evolution，Advanced Solar Panels</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置BrandonsCore</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑西风之刃</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>LOTweakR</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元修复</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元另一个修复</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">前置是ChromatiCraft </t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>安装可否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Bugtorch</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Gtnhlib</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>中文名/注释</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Modernsplash</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Unimixins-all</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Buildcraft</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Buildcraft-compat</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Jar Checker</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>地狱合集</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>联动模组</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Trop</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicthermae</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumicmixins</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Manametalmod</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Magicbees</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Witchery</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Neiaddons</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Nechar-GTNH（NotEnoughCharacters）</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Tcneiadditions</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Lotrcrashfix</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>NeiRecipeHandlers</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>NeiLotr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumcraft Minus Thaumcraft</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Thaumic-Errata</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，联动了Grimoire of Gaia，Automagy，Thermal Foundation</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑包括附属</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是SlashBlade</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>SlashBlade_DarkRaven</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，SlashBlade，SlashBlade_DarkRaven</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Magicalcrops</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>以太2包括附属</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>魔戒包括附属</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>缤纷纪元以及修复</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是Thaumcraft，Industrialcraft，Tainted Magic，Electro Magic Tools（EMT）</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>神秘联动 1.1.2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>拔刀剑-暗鸦 1.1.2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>红色名字是作者反编译+修BUG后重新打包的模组。绿色名字是新加的模组后面是整合包版本号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Chromaticraft-AIFixes（Zaifix）</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>JAOPC</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>另一版本的统一矿物</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>CarbonConfig</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Chunk+Pregenerator的核心</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是CarbonConfig</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>自动解锁所有神秘时代研究1.2.2</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>chunkapi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>endlessids</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>我看到了什么</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>wdmla</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>Wawla</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>waila的fork版本</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>waila的附属</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是NEI全套</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是NEI全套</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>拓展所有ID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>T+C3:C77</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>falsepatternlib</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>前置是chunkapi，falsepatternlib</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>对非 libraries 模组进行版本安全的依赖处理</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>将自定义数据添加到区块的模组</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2051,195 +2055,192 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2247,11 +2248,26 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2259,33 +2275,24 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - 着色 5" xfId="3" builtinId="46"/>
@@ -2575,10 +2582,10 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="37.75" style="3" bestFit="1" customWidth="1"/>
@@ -2595,7 +2602,7 @@
     <col min="13" max="16384" width="8.9140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +2641,7 @@
       </c>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -2655,15 +2662,15 @@
       <c r="L2" s="4"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>413</v>
+      <c r="C3" s="75" t="s">
+        <v>258</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>26</v>
@@ -2689,7 +2696,7 @@
       </c>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>283</v>
       </c>
@@ -2725,7 +2732,7 @@
       </c>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>284</v>
       </c>
@@ -2764,7 +2771,7 @@
       </c>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>358</v>
       </c>
@@ -2799,7 +2806,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="13.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>399</v>
       </c>
@@ -2835,7 +2842,7 @@
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="13.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>156</v>
       </c>
@@ -2874,7 +2881,7 @@
       </c>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2910,7 +2917,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>251</v>
       </c>
@@ -2946,7 +2953,7 @@
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>359</v>
       </c>
@@ -2982,7 +2989,7 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>353</v>
       </c>
@@ -3021,7 +3028,7 @@
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>361</v>
       </c>
@@ -3045,12 +3052,12 @@
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C14" s="72" t="s">
         <v>258</v>
@@ -3075,7 +3082,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>362</v>
       </c>
@@ -3109,12 +3116,12 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>258</v>
@@ -3145,7 +3152,7 @@
       </c>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
         <v>404</v>
       </c>
@@ -3156,7 +3163,7 @@
         <v>258</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>175</v>
@@ -3184,7 +3191,7 @@
       </c>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="14" customHeight="1">
       <c r="E18" s="3" t="s">
         <v>242</v>
       </c>
@@ -3205,7 +3212,7 @@
       <c r="L18" s="56"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -3237,7 +3244,7 @@
       </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
         <v>397</v>
       </c>
@@ -3266,7 +3273,7 @@
       <c r="L20"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
@@ -3296,7 +3303,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="13.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>144</v>
       </c>
@@ -3330,7 +3337,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="57" t="s">
         <v>259</v>
       </c>
@@ -3366,7 +3373,7 @@
       </c>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -3402,7 +3409,7 @@
       </c>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
         <v>345</v>
       </c>
@@ -3426,7 +3433,7 @@
       </c>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
         <v>363</v>
       </c>
@@ -3459,7 +3466,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
         <v>364</v>
       </c>
@@ -3495,7 +3502,7 @@
       </c>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
         <v>151</v>
       </c>
@@ -3531,7 +3538,7 @@
       </c>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
         <v>148</v>
       </c>
@@ -3567,7 +3574,7 @@
       </c>
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -3603,7 +3610,7 @@
       </c>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
@@ -3627,7 +3634,7 @@
       </c>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
         <v>346</v>
       </c>
@@ -3660,7 +3667,7 @@
       <c r="L32" s="4"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
         <v>222</v>
       </c>
@@ -3696,7 +3703,7 @@
       </c>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
         <v>165</v>
       </c>
@@ -3732,7 +3739,7 @@
       </c>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
         <v>290</v>
       </c>
@@ -3768,7 +3775,7 @@
       </c>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
         <v>288</v>
       </c>
@@ -3792,7 +3799,7 @@
       </c>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
         <v>168</v>
       </c>
@@ -3825,7 +3832,7 @@
       <c r="L37" s="4"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
         <v>173</v>
       </c>
@@ -3857,7 +3864,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
@@ -3893,7 +3900,7 @@
       </c>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
         <v>177</v>
       </c>
@@ -3929,7 +3936,7 @@
       </c>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="3" t="s">
         <v>248</v>
       </c>
@@ -3968,7 +3975,7 @@
       </c>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
         <v>138</v>
       </c>
@@ -4004,7 +4011,7 @@
       </c>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="3" t="s">
         <v>190</v>
       </c>
@@ -4028,7 +4035,7 @@
       </c>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44" s="3" t="s">
         <v>188</v>
       </c>
@@ -4052,7 +4059,7 @@
       </c>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45" s="3" t="s">
         <v>192</v>
       </c>
@@ -4079,7 +4086,7 @@
       </c>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46" s="3" t="s">
         <v>336</v>
       </c>
@@ -4106,7 +4113,7 @@
       </c>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
@@ -4130,7 +4137,7 @@
       </c>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48" s="3" t="s">
         <v>228</v>
       </c>
@@ -4154,7 +4161,7 @@
       </c>
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -4178,7 +4185,7 @@
       </c>
       <c r="M49" s="5"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50" s="3" t="s">
         <v>6</v>
       </c>
@@ -4202,7 +4209,7 @@
       </c>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -4226,7 +4233,7 @@
       </c>
       <c r="M51" s="5"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52" s="3" t="s">
         <v>321</v>
       </c>
@@ -4250,7 +4257,7 @@
       </c>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
         <v>226</v>
       </c>
@@ -4277,7 +4284,7 @@
       </c>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54" s="3" t="s">
         <v>218</v>
       </c>
@@ -4301,7 +4308,7 @@
       </c>
       <c r="M54" s="5"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55" s="3" t="s">
         <v>219</v>
       </c>
@@ -4325,7 +4332,7 @@
       </c>
       <c r="M55" s="5"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
@@ -4349,7 +4356,7 @@
       </c>
       <c r="M56" s="5"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57" s="3" t="s">
         <v>339</v>
       </c>
@@ -4373,7 +4380,7 @@
       </c>
       <c r="M57" s="5"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -4397,7 +4404,7 @@
       </c>
       <c r="M58" s="5"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59" s="3" t="s">
         <v>69</v>
       </c>
@@ -4421,7 +4428,7 @@
       </c>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60" s="3" t="s">
         <v>67</v>
       </c>
@@ -4445,7 +4452,7 @@
       </c>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61" s="3" t="s">
         <v>72</v>
       </c>
@@ -4469,7 +4476,7 @@
       </c>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -4493,7 +4500,7 @@
       </c>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63" s="3" t="s">
         <v>43</v>
       </c>
@@ -4517,7 +4524,7 @@
       </c>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -4541,7 +4548,7 @@
       </c>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="A65" s="3" t="s">
         <v>305</v>
       </c>
@@ -4565,7 +4572,7 @@
       </c>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="E66" s="3" t="s">
         <v>130</v>
       </c>
@@ -4580,7 +4587,7 @@
       </c>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="A67" s="4" t="s">
         <v>405</v>
       </c>
@@ -4600,7 +4607,7 @@
       </c>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="A68" s="3" t="s">
         <v>406</v>
       </c>
@@ -4624,7 +4631,7 @@
       </c>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69" s="3" t="s">
         <v>407</v>
       </c>
@@ -4648,7 +4655,7 @@
       </c>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="E70" s="3" t="s">
         <v>370</v>
       </c>
@@ -4663,7 +4670,7 @@
       </c>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="A71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="58" t="s">
@@ -4679,7 +4686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="E72" s="3" t="s">
         <v>106</v>
       </c>
@@ -4693,7 +4700,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="E73" s="3" t="s">
         <v>257</v>
       </c>
@@ -4707,7 +4714,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="E74" s="3" t="s">
         <v>104</v>
       </c>
@@ -4721,7 +4728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="E75" s="3" t="s">
         <v>369</v>
       </c>
@@ -4735,7 +4742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="E76" s="3" t="s">
         <v>264</v>
       </c>
@@ -4749,7 +4756,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13">
       <c r="E77" s="3" t="s">
         <v>99</v>
       </c>
@@ -4763,7 +4770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13">
       <c r="E78" s="3" t="s">
         <v>102</v>
       </c>
@@ -4777,7 +4784,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13">
       <c r="E79" s="3" t="s">
         <v>243</v>
       </c>
@@ -4791,7 +4798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13">
       <c r="E80" s="3" t="s">
         <v>368</v>
       </c>
@@ -4805,7 +4812,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:8">
       <c r="E81" s="3" t="s">
         <v>62</v>
       </c>
@@ -4823,7 +4830,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D15">
     <sortCondition ref="A3:A15"/>
   </sortState>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
